--- a/document/Oracle 테이블명세(2023-07-22).xlsx
+++ b/document/Oracle 테이블명세(2023-07-22).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\BigFootPrint\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HumiDK\Documents\Workspace\BigFoot_SpringMVC\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC513521-9B8C-4010-96A4-63E3860FF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3528E5E-74E1-48F6-924A-E6DD6D7DCFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회원" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="186">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2936,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B8E788-1734-4630-9368-E723D2280063}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3726,7 +3726,9 @@
       <c r="F7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
         <v>176</v>
@@ -3755,7 +3757,9 @@
       <c r="F8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
         <v>177</v>
@@ -6529,7 +6533,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7415,7 +7419,9 @@
       <c r="F11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
         <v>179</v>
@@ -7742,7 +7748,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8971,7 +8977,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9807,7 +9813,9 @@
       <c r="F9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
         <v>182</v>
@@ -10163,8 +10171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A11B3-2CB7-4C6C-9A37-4A6CA2A25E02}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10925,7 +10933,9 @@
       <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>68</v>
       </c>
@@ -10959,7 +10969,9 @@
       <c r="F7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
